--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1164133.119065523</v>
+        <v>1161473.275540447</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673423</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>100.887731425613</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
         <v>212.651863114966</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>353.0487519536572</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498675</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -756,7 +756,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44580843958667</v>
+        <v>45.44580843958686</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>3.787448639045135</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>212.0828899050101</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>117.5217749460487</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>365.2764909341814</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>81.29510839250727</v>
+        <v>64.60559526151326</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>80.11876852787697</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.24364034742719</v>
+        <v>412.2436403474272</v>
       </c>
       <c r="H8" t="n">
         <v>308.145823246979</v>
       </c>
       <c r="I8" t="n">
-        <v>92.54004601234848</v>
+        <v>92.54004601234827</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>209.7046517124902</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1009251344199</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>58.4231777318249</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>135.7067558814507</v>
       </c>
       <c r="H9" t="n">
-        <v>96.42777606792039</v>
+        <v>96.42777606792036</v>
       </c>
       <c r="I9" t="n">
-        <v>33.0432290715231</v>
+        <v>33.043229071523</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>141.2810481729025</v>
+        <v>141.2810481729024</v>
       </c>
       <c r="T9" t="n">
         <v>193.5674321249209</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>26.88433424406734</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>222.082528811566</v>
       </c>
       <c r="U10" t="n">
-        <v>283.0734015059526</v>
+        <v>286.2441817741499</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1370,13 +1370,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,10 +1385,10 @@
         <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>270.1915102239733</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238027</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114102</v>
+        <v>97.97552699114094</v>
       </c>
       <c r="T11" t="n">
-        <v>33.26275892920635</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458124</v>
+        <v>87.05432226458123</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035238</v>
+        <v>9.753166794035167</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.253538246862</v>
+        <v>123.2535382468619</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2304041685599</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146339</v>
+        <v>79.00824149146332</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076761</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>196.2511428064794</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>359.5517498754684</v>
+        <v>359.5517498754683</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>153.4525438190182</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>81.3725990111934</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695561</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986288</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>91.89996056624993</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>99.97427419833885</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.137643323827</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206823</v>
+        <v>354.6830416206813</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819396</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892427648</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>55.52079624060159</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533521004</v>
       </c>
     </row>
     <row r="23">
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>137.7610225486944</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408059</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174132</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182118</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>99.97427419833694</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>91.89996056624841</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187871</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833976</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>31.26260713376596</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>18.70843787977268</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>123.3988099269036</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>102.1557845699808</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>87.21471514852985</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206838</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,16 +3664,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>23.10998325717265</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>249.6700188375716</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>121.800047274035</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179517</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>685.2865943489207</v>
+        <v>596.427172652278</v>
       </c>
       <c r="C2" t="n">
-        <v>685.2865943489207</v>
+        <v>596.427172652278</v>
       </c>
       <c r="D2" t="n">
-        <v>685.2865943489207</v>
+        <v>596.427172652278</v>
       </c>
       <c r="E2" t="n">
-        <v>685.2865943489207</v>
+        <v>596.427172652278</v>
       </c>
       <c r="F2" t="n">
-        <v>274.3006895593132</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="G2" t="n">
         <v>172.393890139502</v>
@@ -4328,25 +4328,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K2" t="n">
-        <v>156.4983241075885</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L2" t="n">
-        <v>683.1408478992852</v>
+        <v>1197.621189819594</v>
       </c>
       <c r="M2" t="n">
-        <v>1314.858658882597</v>
+        <v>1384.320602645002</v>
       </c>
       <c r="N2" t="n">
-        <v>1942.166326942443</v>
+        <v>2011.628270704848</v>
       </c>
       <c r="O2" t="n">
-        <v>2489.327531709521</v>
+        <v>2181.797296021808</v>
       </c>
       <c r="P2" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
@@ -4355,25 +4355,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S2" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T2" t="n">
-        <v>2420.246115248354</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U2" t="n">
-        <v>2166.554411993505</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V2" t="n">
-        <v>1835.491524649934</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="W2" t="n">
-        <v>1835.491524649934</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="X2" t="n">
-        <v>1462.025766388854</v>
+        <v>953.0420736155681</v>
       </c>
       <c r="Y2" t="n">
-        <v>1071.886434413042</v>
+        <v>596.427172652278</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.1226039662187</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C3" t="n">
-        <v>791.6695746850917</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D3" t="n">
-        <v>642.7351650238404</v>
+        <v>642.7351650238405</v>
       </c>
       <c r="E3" t="n">
-        <v>483.4977100183849</v>
+        <v>483.497710018385</v>
       </c>
       <c r="F3" t="n">
-        <v>336.9631520452699</v>
+        <v>336.96315204527</v>
       </c>
       <c r="G3" t="n">
-        <v>199.5217544044918</v>
+        <v>199.521754404492</v>
       </c>
       <c r="H3" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929655</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961285</v>
@@ -4416,10 +4416,10 @@
         <v>886.4908637115414</v>
       </c>
       <c r="M3" t="n">
-        <v>1232.27200203395</v>
+        <v>1527.036213178646</v>
       </c>
       <c r="N3" t="n">
-        <v>1430.928743686615</v>
+        <v>1820.852439770578</v>
       </c>
       <c r="O3" t="n">
         <v>1980.364752439338</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>389.6283296392181</v>
+        <v>225.462808163525</v>
       </c>
       <c r="C4" t="n">
-        <v>220.6921467113112</v>
+        <v>56.52662523561804</v>
       </c>
       <c r="D4" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E4" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F4" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G4" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H4" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I4" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J4" t="n">
         <v>52.70091953961285</v>
@@ -4510,28 +4510,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R4" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S4" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="T4" t="n">
-        <v>1052.635600998958</v>
+        <v>696.5284430307253</v>
       </c>
       <c r="U4" t="n">
-        <v>1052.635600998958</v>
+        <v>696.5284430307253</v>
       </c>
       <c r="V4" t="n">
-        <v>1052.635600998958</v>
+        <v>696.5284430307253</v>
       </c>
       <c r="W4" t="n">
-        <v>838.4104596807656</v>
+        <v>407.1112729937647</v>
       </c>
       <c r="X4" t="n">
-        <v>610.4209087827483</v>
+        <v>407.1112729937647</v>
       </c>
       <c r="Y4" t="n">
-        <v>389.6283296392181</v>
+        <v>407.1112729937647</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>547.3178008110954</v>
+        <v>1134.97086444447</v>
       </c>
       <c r="C5" t="n">
-        <v>178.3552838706836</v>
+        <v>1134.97086444447</v>
       </c>
       <c r="D5" t="n">
-        <v>178.3552838706836</v>
+        <v>776.7051658377195</v>
       </c>
       <c r="E5" t="n">
-        <v>178.3552838706836</v>
+        <v>390.9169132394753</v>
       </c>
       <c r="F5" t="n">
-        <v>171.4097831214802</v>
+        <v>383.9714124902719</v>
       </c>
       <c r="G5" t="n">
-        <v>52.70091953961285</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H5" t="n">
         <v>52.70091953961285</v>
@@ -4565,25 +4565,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J5" t="n">
-        <v>76.07976811573525</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K5" t="n">
-        <v>479.5468811357807</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L5" t="n">
-        <v>1032.36013938198</v>
+        <v>1030.215540799241</v>
       </c>
       <c r="M5" t="n">
-        <v>1219.059552207387</v>
+        <v>1216.914953624649</v>
       </c>
       <c r="N5" t="n">
-        <v>1413.39376509937</v>
+        <v>1844.222621684495</v>
       </c>
       <c r="O5" t="n">
-        <v>1960.554969866447</v>
+        <v>2391.383826451573</v>
       </c>
       <c r="P5" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q5" t="n">
         <v>2635.045976980643</v>
@@ -4592,25 +4592,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T5" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U5" t="n">
-        <v>2381.354273725794</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="V5" t="n">
-        <v>2050.291386382223</v>
+        <v>1894.076348879051</v>
       </c>
       <c r="W5" t="n">
-        <v>1697.522731112109</v>
+        <v>1894.076348879051</v>
       </c>
       <c r="X5" t="n">
-        <v>1324.056972851029</v>
+        <v>1525.110196420282</v>
       </c>
       <c r="Y5" t="n">
-        <v>933.9176408752171</v>
+        <v>1134.97086444447</v>
       </c>
     </row>
     <row r="6">
@@ -4644,22 +4644,22 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J6" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K6" t="n">
-        <v>500.7885757023184</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L6" t="n">
-        <v>1005.150115568437</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M6" t="n">
-        <v>1232.27200203395</v>
+        <v>1527.036213178646</v>
       </c>
       <c r="N6" t="n">
-        <v>1430.928743686615</v>
+        <v>1746.206884640153</v>
       </c>
       <c r="O6" t="n">
-        <v>1980.364752439338</v>
+        <v>2295.642893392876</v>
       </c>
       <c r="P6" t="n">
         <v>2404.332520920175</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>152.6917784025182</v>
+        <v>117.9590965714444</v>
       </c>
       <c r="C7" t="n">
-        <v>152.6917784025182</v>
+        <v>117.9590965714444</v>
       </c>
       <c r="D7" t="n">
-        <v>152.6917784025182</v>
+        <v>117.9590965714444</v>
       </c>
       <c r="E7" t="n">
-        <v>152.6917784025182</v>
+        <v>117.9590965714444</v>
       </c>
       <c r="F7" t="n">
-        <v>152.6917784025182</v>
+        <v>117.9590965714444</v>
       </c>
       <c r="G7" t="n">
-        <v>152.6917784025182</v>
+        <v>117.9590965714444</v>
       </c>
       <c r="H7" t="n">
-        <v>152.6917784025182</v>
+        <v>117.9590965714444</v>
       </c>
       <c r="I7" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J7" t="n">
         <v>52.70091953961285</v>
@@ -4759,16 +4759,16 @@
         <v>407.376266608405</v>
       </c>
       <c r="V7" t="n">
-        <v>152.6917784025182</v>
+        <v>407.376266608405</v>
       </c>
       <c r="W7" t="n">
-        <v>152.6917784025182</v>
+        <v>117.9590965714444</v>
       </c>
       <c r="X7" t="n">
-        <v>152.6917784025182</v>
+        <v>117.9590965714444</v>
       </c>
       <c r="Y7" t="n">
-        <v>152.6917784025182</v>
+        <v>117.9590965714444</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1663.745951457375</v>
+        <v>1624.841290288512</v>
       </c>
       <c r="C8" t="n">
-        <v>1294.783434516963</v>
+        <v>1624.841290288512</v>
       </c>
       <c r="D8" t="n">
-        <v>936.5177359102124</v>
+        <v>1266.575591681762</v>
       </c>
       <c r="E8" t="n">
-        <v>550.7294833119681</v>
+        <v>880.7873390835178</v>
       </c>
       <c r="F8" t="n">
-        <v>469.8014342939106</v>
+        <v>873.8418383343144</v>
       </c>
       <c r="G8" t="n">
-        <v>457.4341208116609</v>
+        <v>457.4341208116606</v>
       </c>
       <c r="H8" t="n">
-        <v>146.17571349148</v>
+        <v>146.1757134914798</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J8" t="n">
-        <v>297.9118008339143</v>
+        <v>130.5061518135618</v>
       </c>
       <c r="K8" t="n">
-        <v>606.8745119374381</v>
+        <v>586.5463525871306</v>
       </c>
       <c r="L8" t="n">
-        <v>851.3867526472789</v>
+        <v>831.0585932969723</v>
       </c>
       <c r="M8" t="n">
-        <v>1155.123170346069</v>
+        <v>1134.795010995764</v>
       </c>
       <c r="N8" t="n">
-        <v>1468.388169208707</v>
+        <v>1786.968890298473</v>
       </c>
       <c r="O8" t="n">
-        <v>1750.860163237719</v>
+        <v>2069.440884327485</v>
       </c>
       <c r="P8" t="n">
-        <v>2276.023195151742</v>
+        <v>2276.023195151741</v>
       </c>
       <c r="Q8" t="n">
         <v>2593.177001405962</v>
@@ -4832,22 +4832,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T8" t="n">
-        <v>2635.045976980643</v>
+        <v>2423.223096462976</v>
       </c>
       <c r="U8" t="n">
-        <v>2381.408678865067</v>
+        <v>2423.223096462976</v>
       </c>
       <c r="V8" t="n">
-        <v>2050.345791521496</v>
+        <v>2423.223096462976</v>
       </c>
       <c r="W8" t="n">
-        <v>2050.345791521496</v>
+        <v>2070.454441192861</v>
       </c>
       <c r="X8" t="n">
-        <v>2050.345791521496</v>
+        <v>2011.441130352634</v>
       </c>
       <c r="Y8" t="n">
-        <v>2050.345791521496</v>
+        <v>2011.441130352634</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>949.7166957240912</v>
+        <v>949.716695724091</v>
       </c>
       <c r="C9" t="n">
-        <v>775.2636664429642</v>
+        <v>775.263666442964</v>
       </c>
       <c r="D9" t="n">
-        <v>626.329256781713</v>
+        <v>626.3292567817127</v>
       </c>
       <c r="E9" t="n">
-        <v>467.0918017762574</v>
+        <v>467.0918017762573</v>
       </c>
       <c r="F9" t="n">
-        <v>320.5572438031423</v>
+        <v>320.5572438031422</v>
       </c>
       <c r="G9" t="n">
-        <v>183.4797126097578</v>
+        <v>183.4797126097577</v>
       </c>
       <c r="H9" t="n">
-        <v>86.0779186017574</v>
+        <v>86.0779186017573</v>
       </c>
       <c r="I9" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J9" t="n">
-        <v>205.0534608927866</v>
+        <v>80.22333590578208</v>
       </c>
       <c r="K9" t="n">
-        <v>592.0690635359284</v>
+        <v>467.2389385489245</v>
       </c>
       <c r="L9" t="n">
-        <v>1015.345156390866</v>
+        <v>681.9016314308391</v>
       </c>
       <c r="M9" t="n">
-        <v>1285.203262171216</v>
+        <v>951.75973721119</v>
       </c>
       <c r="N9" t="n">
-        <v>1576.612353939464</v>
+        <v>1243.168828979439</v>
       </c>
       <c r="O9" t="n">
-        <v>1820.974946321543</v>
+        <v>1819.524654862714</v>
       </c>
       <c r="P9" t="n">
-        <v>2313.042544805117</v>
+        <v>2311.592253346288</v>
       </c>
       <c r="Q9" t="n">
-        <v>2589.278933760978</v>
+        <v>2587.82864230215</v>
       </c>
       <c r="R9" t="n">
         <v>2589.278933760978</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>52.70091953961285</v>
+        <v>79.85681271543845</v>
       </c>
       <c r="C10" t="n">
-        <v>52.70091953961285</v>
+        <v>79.85681271543845</v>
       </c>
       <c r="D10" t="n">
         <v>52.70091953961285</v>
@@ -4960,52 +4960,52 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J10" t="n">
-        <v>56.32012312205251</v>
+        <v>56.32012312205269</v>
       </c>
       <c r="K10" t="n">
-        <v>192.1044230969983</v>
+        <v>192.1044230969988</v>
       </c>
       <c r="L10" t="n">
-        <v>421.3880127696212</v>
+        <v>421.388012769622</v>
       </c>
       <c r="M10" t="n">
-        <v>673.52453324245</v>
+        <v>673.5245332424512</v>
       </c>
       <c r="N10" t="n">
-        <v>925.1004272331212</v>
+        <v>925.1004272331227</v>
       </c>
       <c r="O10" t="n">
-        <v>1141.455188557394</v>
+        <v>1141.455188557396</v>
       </c>
       <c r="P10" t="n">
-        <v>1303.063381081416</v>
+        <v>1303.063381081418</v>
       </c>
       <c r="Q10" t="n">
-        <v>1331.517436617899</v>
+        <v>1331.517436617902</v>
       </c>
       <c r="R10" t="n">
-        <v>1331.517436617899</v>
+        <v>1331.517436617902</v>
       </c>
       <c r="S10" t="n">
-        <v>1331.517436617899</v>
+        <v>1331.517436617902</v>
       </c>
       <c r="T10" t="n">
-        <v>1331.517436617899</v>
+        <v>1107.191649939552</v>
       </c>
       <c r="U10" t="n">
-        <v>1045.584707824008</v>
+        <v>818.0561127939466</v>
       </c>
       <c r="V10" t="n">
-        <v>790.9002196181209</v>
+        <v>818.0561127939466</v>
       </c>
       <c r="W10" t="n">
-        <v>501.4830495811603</v>
+        <v>528.6389427569859</v>
       </c>
       <c r="X10" t="n">
-        <v>273.4934986831429</v>
+        <v>300.6493918589686</v>
       </c>
       <c r="Y10" t="n">
-        <v>52.70091953961285</v>
+        <v>79.85681271543845</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2332.418671408905</v>
+        <v>1535.258832689356</v>
       </c>
       <c r="C11" t="n">
-        <v>1963.456154468493</v>
+        <v>1535.258832689356</v>
       </c>
       <c r="D11" t="n">
-        <v>1605.190455861743</v>
+        <v>1176.993134082606</v>
       </c>
       <c r="E11" t="n">
-        <v>1219.402203263498</v>
+        <v>1176.993134082606</v>
       </c>
       <c r="F11" t="n">
-        <v>808.4162984738909</v>
+        <v>766.0072292929981</v>
       </c>
       <c r="G11" t="n">
-        <v>393.8408528035378</v>
+        <v>351.431783622645</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907325</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469183</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="J11" t="n">
         <v>308.7333971386834</v>
@@ -5048,43 +5048,43 @@
         <v>1232.419981301226</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.48485887811</v>
+        <v>1851.484858878112</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765426</v>
+        <v>2485.180661765428</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687102</v>
+        <v>3070.226377687105</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856284</v>
+        <v>3535.048359856287</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882242</v>
+        <v>3835.937563882245</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234592</v>
+        <v>3925.553311234596</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455661</v>
+        <v>3826.588132455666</v>
       </c>
       <c r="T11" t="n">
-        <v>3792.989386062523</v>
+        <v>3622.786021971446</v>
       </c>
       <c r="U11" t="n">
-        <v>3792.989386062523</v>
+        <v>3369.295305604054</v>
       </c>
       <c r="V11" t="n">
-        <v>3461.926498718952</v>
+        <v>3038.232418260483</v>
       </c>
       <c r="W11" t="n">
-        <v>3109.157843448838</v>
+        <v>2685.463762990369</v>
       </c>
       <c r="X11" t="n">
-        <v>3109.157843448838</v>
+        <v>2311.998004729289</v>
       </c>
       <c r="Y11" t="n">
-        <v>2719.018511473027</v>
+        <v>1921.858672753478</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503046</v>
+        <v>88.36274985503049</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469183</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792129</v>
+        <v>196.8120623792131</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376503</v>
+        <v>477.1621322376509</v>
       </c>
       <c r="L12" t="n">
-        <v>900.4499396649599</v>
+        <v>900.449939664961</v>
       </c>
       <c r="M12" t="n">
-        <v>1413.763713908849</v>
+        <v>977.3905023848049</v>
       </c>
       <c r="N12" t="n">
-        <v>1955.072021259916</v>
+        <v>1518.698809735872</v>
       </c>
       <c r="O12" t="n">
-        <v>2428.043574125665</v>
+        <v>1991.670362601622</v>
       </c>
       <c r="P12" t="n">
-        <v>2428.043574125665</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>391.6657218899725</v>
+        <v>226.4241598070851</v>
       </c>
       <c r="C13" t="n">
-        <v>222.7461217197098</v>
+        <v>226.4241598070851</v>
       </c>
       <c r="D13" t="n">
-        <v>222.7461217197098</v>
+        <v>226.4241598070851</v>
       </c>
       <c r="E13" t="n">
-        <v>222.7461217197098</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="F13" t="n">
-        <v>222.7461217197098</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="G13" t="n">
-        <v>222.7461217197098</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469183</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469183</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600399</v>
+        <v>139.0818334600402</v>
       </c>
       <c r="K13" t="n">
-        <v>368.45504734577</v>
+        <v>368.4550473457708</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888912</v>
+        <v>717.5002252888924</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779221</v>
+        <v>1095.908548779222</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542993</v>
+        <v>1470.753784542995</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715848</v>
+        <v>1800.96773471585</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082521</v>
+        <v>2060.002133082522</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551104</v>
+        <v>2155.909043551106</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014273</v>
+        <v>2076.102739014274</v>
       </c>
       <c r="S13" t="n">
-        <v>2076.102739014273</v>
+        <v>1888.302075370157</v>
       </c>
       <c r="T13" t="n">
-        <v>1855.288681564319</v>
+        <v>1667.488017920203</v>
       </c>
       <c r="U13" t="n">
-        <v>1566.197975004607</v>
+        <v>1378.397311360492</v>
       </c>
       <c r="V13" t="n">
-        <v>1311.51348679872</v>
+        <v>1123.712823154605</v>
       </c>
       <c r="W13" t="n">
-        <v>1022.09631676176</v>
+        <v>834.2956531176444</v>
       </c>
       <c r="X13" t="n">
-        <v>794.1067658637423</v>
+        <v>606.3061022196271</v>
       </c>
       <c r="Y13" t="n">
-        <v>573.3141867202122</v>
+        <v>408.0726246373248</v>
       </c>
     </row>
     <row r="14">
@@ -5276,28 +5276,28 @@
         <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128774</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957691</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333935</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021283</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
         <v>4640.581161304028</v>
@@ -5352,31 +5352,31 @@
         <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779265</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K15" t="n">
-        <v>570.9683475412853</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L15" t="n">
-        <v>919.0777936927001</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M15" t="n">
-        <v>1511.096147944828</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="N15" t="n">
-        <v>2133.192111344164</v>
+        <v>1320.428158124812</v>
       </c>
       <c r="O15" t="n">
-        <v>2133.192111344164</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>561.9183350635719</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="C16" t="n">
-        <v>406.9157655494121</v>
+        <v>325.1228070941668</v>
       </c>
       <c r="D16" t="n">
-        <v>406.9157655494121</v>
+        <v>175.0061676818311</v>
       </c>
       <c r="E16" t="n">
-        <v>406.9157655494121</v>
+        <v>175.0061676818311</v>
       </c>
       <c r="F16" t="n">
-        <v>260.0258180515017</v>
+        <v>175.0061676818311</v>
       </c>
       <c r="G16" t="n">
         <v>92.81162322608056</v>
@@ -5434,19 +5434,19 @@
         <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156346</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861979</v>
+        <v>431.4224730861982</v>
       </c>
       <c r="L16" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693325</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
@@ -5458,28 +5458,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.205584149098</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>2025.52680186348</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U16" t="n">
-        <v>1736.450588178207</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1481.76609997232</v>
+        <v>1413.906754930822</v>
       </c>
       <c r="W16" t="n">
-        <v>1192.348929935359</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>964.3593790373418</v>
+        <v>896.5000339958435</v>
       </c>
       <c r="Y16" t="n">
-        <v>743.5667998938117</v>
+        <v>675.7074548523134</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.5007694647279</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C19" t="n">
-        <v>631.5645865368233</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D19" t="n">
-        <v>481.4479471244875</v>
+        <v>194.8007783998294</v>
       </c>
       <c r="E19" t="n">
-        <v>333.5348535420944</v>
+        <v>194.8007783998293</v>
       </c>
       <c r="F19" t="n">
-        <v>186.6449060441841</v>
+        <v>194.8007783998293</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998293</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782952</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1492342949676</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5744,10 +5744,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5777,25 +5777,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>691.1951506745237</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.754138832762</v>
+        <v>513.853600740066</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048551</v>
+        <v>344.9174178121591</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925194</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>296.7882229101263</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>149.8982754122159</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>149.8982754122159</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>149.8982754122159</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630038</v>
+        <v>695.5020655703057</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>557.5558870561822</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>388.6197041282753</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
         <v>93.81666304797187</v>
@@ -6163,7 +6163,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2240.764831803678</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2021.163366826619</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1732.088140170817</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1477.40365196493</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1187.986481927969</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>959.9969310299521</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y25" t="n">
-        <v>739.2043518864219</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="26">
@@ -6209,34 +6209,34 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.6725264685181</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406112</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282754</v>
+        <v>194.8007783998274</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998274</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998274</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6403,31 +6403,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987576</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6452,19 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,10 +6473,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>119.2902967703784</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>119.2902967703784</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400728</v>
       </c>
       <c r="C31" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121659</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253734</v>
+        <v>194.8007783998302</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038361</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797761</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T31" t="n">
-        <v>2415.384692536053</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U31" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V31" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W31" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X31" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138427</v>
       </c>
       <c r="Y31" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703125</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245705</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>762.5477693179097</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5477693179097</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D34" t="n">
-        <v>762.5477693179097</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E34" t="n">
-        <v>614.6346757355166</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F34" t="n">
-        <v>467.7447282376062</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>300.5486289524861</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,7 +6859,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L34" t="n">
         <v>826.1405381797745</v>
@@ -6871,37 +6871,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614398</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179097</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,16 +6947,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7014,22 +7014,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297707</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
         <v>435.7419440038343</v>
@@ -7105,40 +7105,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
         <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7166,13 +7166,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075811</v>
@@ -7181,40 +7181,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876698</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597629</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597629</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="E40" t="n">
-        <v>264.0500279773698</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="F40" t="n">
-        <v>117.1600804794594</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7351,31 +7351,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614397</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179096</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M42" t="n">
-        <v>923.0670414349513</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>800.6374272687974</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C43" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998292</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K43" t="n">
         <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.169680383432</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1720.485192177546</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1431.068022140585</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1203.078471242568</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.2858920990371</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,16 +7658,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>391.2261292428723</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>98.3216110448561</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8064,13 +8064,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>167.9634363311155</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>96.12069185784534</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2.166261194685955</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>98.93303561408925</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,16 +8301,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>48.10560617263505</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>20.72114122105287</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0447662673774</v>
+        <v>291.6078871462101</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,13 +8462,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>342.3322024647172</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>210.7206060333568</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>335.3467005062577</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>44.05672894381733</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10118,13 +10118,13 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>19.37720645670393</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.60777203238013</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>168.5013304501716</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9558092037176</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01641693006789069</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23431,10 @@
         <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034039</v>
+        <v>89.71507747034033</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>22.33351054561544</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>50.29152613728922</v>
+        <v>50.29152613728928</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>13.79427727960959</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>84.16945386597352</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>73.62417772601891</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788504</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>65.54986409393588</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>25.74504007796394</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>43.26526345295019</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>46.45968844823122</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,13 +24607,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>65.5498640939319</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>46.45968844822941</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>186.1428431935223</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>16.89590291932026</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345295041</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>142.4141550350962</v>
+        <v>65.54986409393055</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823042</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>36.51445555167254</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>45.44677382459286</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1001522.145848577</v>
+        <v>1001522.145848576</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>872140.3246336097</v>
+        <v>872140.3246336104</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>949248.17132481</v>
+        <v>949248.1713248101</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>954496.6942858805</v>
+        <v>954496.6942858804</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>954496.6942858804</v>
+        <v>954496.6942858805</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>954496.6942858807</v>
+        <v>954496.6942858805</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>954496.6942858808</v>
+        <v>954496.6942858805</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>954496.6942858805</v>
+        <v>954496.6942858804</v>
       </c>
     </row>
     <row r="14">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.0176719628</v>
+      </c>
+      <c r="C2" t="n">
         <v>472099.0176719627</v>
       </c>
-      <c r="C2" t="n">
-        <v>472099.0176719628</v>
-      </c>
       <c r="D2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="E2" t="n">
-        <v>423807.2415876634</v>
+        <v>423807.2415876637</v>
       </c>
       <c r="F2" t="n">
         <v>461540.8686918677</v>
       </c>
       <c r="G2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="H2" t="n">
         <v>464109.2948217537</v>
@@ -26347,7 +26347,7 @@
         <v>464109.2948217537</v>
       </c>
       <c r="N2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217535</v>
       </c>
       <c r="O2" t="n">
         <v>464109.2948217536</v>
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>143427.3523991852</v>
+        <v>143427.3523991863</v>
       </c>
       <c r="E3" t="n">
         <v>458840.6534729325</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051382</v>
+        <v>166521.3471051371</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557874</v>
+        <v>11167.23623557868</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>172360.9924002808</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>80399.89743135528</v>
+        <v>80399.89743135557</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848926</v>
+        <v>43782.40655848892</v>
       </c>
       <c r="O3" t="n">
         <v>3023.297977224528</v>
@@ -26421,7 +26421,7 @@
         <v>189891.8124216188</v>
       </c>
       <c r="D4" t="n">
-        <v>160507.7126476381</v>
+        <v>160507.7126476378</v>
       </c>
       <c r="E4" t="n">
         <v>6798.303539401317</v>
@@ -26430,34 +26430,34 @@
         <v>6890.891875482008</v>
       </c>
       <c r="G4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6897.42449670735</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6897.424496707372</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6897.424496707366</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6897.424496707376</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6897.424496707365</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6897.424496707369</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6897.424496707369</v>
+      </c>
+      <c r="P4" t="n">
         <v>6897.42449670736</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6897.424496707368</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.424496707334</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.42449670735</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.424496707323</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6897.42449670733</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6897.42449670735</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>86618.07783747558</v>
       </c>
       <c r="D5" t="n">
-        <v>90269.01801629359</v>
+        <v>90269.01801629362</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214711</v>
+        <v>86093.7221621472</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-597058.2862981166</v>
+        <v>-597058.2862981164</v>
       </c>
       <c r="C6" t="n">
-        <v>195589.1274128684</v>
+        <v>195589.1274128683</v>
       </c>
       <c r="D6" t="n">
-        <v>77894.93460884615</v>
+        <v>77894.93460884536</v>
       </c>
       <c r="E6" t="n">
-        <v>-127925.4375868175</v>
+        <v>-128135.4018306621</v>
       </c>
       <c r="F6" t="n">
-        <v>187986.5011974091</v>
+        <v>187940.5962018446</v>
       </c>
       <c r="G6" t="n">
-        <v>344922.1042655604</v>
+        <v>344887.3663401249</v>
       </c>
       <c r="H6" t="n">
-        <v>356089.3405011392</v>
+        <v>356054.6025757036</v>
       </c>
       <c r="I6" t="n">
-        <v>356089.3405011392</v>
+        <v>356054.6025757034</v>
       </c>
       <c r="J6" t="n">
-        <v>183728.3481008585</v>
+        <v>183693.6101754227</v>
       </c>
       <c r="K6" t="n">
-        <v>356089.340501139</v>
+        <v>356054.6025757034</v>
       </c>
       <c r="L6" t="n">
-        <v>356089.3405011391</v>
+        <v>356054.6025757034</v>
       </c>
       <c r="M6" t="n">
-        <v>275689.443069784</v>
+        <v>275654.705144348</v>
       </c>
       <c r="N6" t="n">
-        <v>312306.9339426499</v>
+        <v>312272.1960172143</v>
       </c>
       <c r="O6" t="n">
-        <v>353066.0425239146</v>
+        <v>353031.3045984789</v>
       </c>
       <c r="P6" t="n">
-        <v>356089.3405011391</v>
+        <v>356054.6025757035</v>
       </c>
     </row>
   </sheetData>
@@ -26741,10 +26741,10 @@
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>760.950420467331</v>
+        <v>760.9504204673324</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494556</v>
+        <v>1212.170267494557</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26796,7 +26796,7 @@
         <v>658.7614942451606</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086479</v>
+        <v>981.388327808649</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326007</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>167.4743201292659</v>
+        <v>167.4743201292673</v>
       </c>
       <c r="E3" t="n">
-        <v>451.2198470272249</v>
+        <v>451.2198470272245</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218299</v>
+        <v>145.870781221829</v>
       </c>
       <c r="G3" t="n">
         <v>9.93445162528792</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>322.6268335634873</v>
+        <v>322.6268335634884</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173591</v>
+        <v>178.7569625173579</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.5629977736412</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>322.6268335634873</v>
+        <v>322.6268335634884</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173593</v>
+        <v>178.7569625173579</v>
       </c>
       <c r="O4" t="n">
         <v>12.5629977736412</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>322.6268335634873</v>
+        <v>322.6268335634884</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173591</v>
+        <v>178.7569625173579</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.5629977736412</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,10 +27388,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>312.0291725203238</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>315.0408840752156</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>33.1891867023964</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-1.84741111297626e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>144.8280243791672</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27558,7 +27558,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.260654658097</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>74.44010843158085</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>295.3951289998881</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>118.4960408938903</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.651863114966</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>4.454609744287666</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27792,10 +27792,10 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>41.97144948690971</v>
+        <v>58.66096261790372</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27831,10 +27831,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>326.7572772138345</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>139.3108928771024</v>
+        <v>139.3108928771023</v>
       </c>
       <c r="T8" t="n">
-        <v>209.7046517124902</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1009251344199</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>311.3079229466441</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>121.731138774145</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,7 +28029,7 @@
         <v>150.0270165858486</v>
       </c>
       <c r="I10" t="n">
-        <v>114.1845078632266</v>
+        <v>114.1845078632265</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>115.5940343340315</v>
+        <v>115.5940343340314</v>
       </c>
       <c r="S10" t="n">
         <v>200.1027954790071</v>
       </c>
       <c r="T10" t="n">
-        <v>222.082528811566</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>3.170780268197234</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-3.126388037344441e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28722,7 +28722,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -28779,7 +28779,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.036918699052573e-12</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29025,7 +29025,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>-3.982392044642498e-12</v>
       </c>
     </row>
     <row r="23">
@@ -29436,7 +29436,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>5.655920176650397e-13</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29694,7 +29694,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1.940255363782247e-12</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-8.139557993131504e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.059097167707861</v>
+        <v>3.059097167707867</v>
       </c>
       <c r="H8" t="n">
-        <v>31.32897886878814</v>
+        <v>31.32897886878819</v>
       </c>
       <c r="I8" t="n">
-        <v>117.9358435580574</v>
+        <v>117.9358435580576</v>
       </c>
       <c r="J8" t="n">
-        <v>259.6370482377453</v>
+        <v>259.6370482377458</v>
       </c>
       <c r="K8" t="n">
-        <v>389.1286313468191</v>
+        <v>389.1286313468198</v>
       </c>
       <c r="L8" t="n">
-        <v>482.7484762930587</v>
+        <v>482.7484762930596</v>
       </c>
       <c r="M8" t="n">
-        <v>537.1506955492833</v>
+        <v>537.1506955492844</v>
       </c>
       <c r="N8" t="n">
-        <v>545.8423553770333</v>
+        <v>545.8423553770343</v>
       </c>
       <c r="O8" t="n">
-        <v>515.4234579156383</v>
+        <v>515.4234579156392</v>
       </c>
       <c r="P8" t="n">
-        <v>439.9019965878504</v>
+        <v>439.9019965878512</v>
       </c>
       <c r="Q8" t="n">
-        <v>330.3480792693125</v>
+        <v>330.3480792693131</v>
       </c>
       <c r="R8" t="n">
-        <v>192.1610124610291</v>
+        <v>192.1610124610294</v>
       </c>
       <c r="S8" t="n">
-        <v>69.70917670914295</v>
+        <v>69.70917670914308</v>
       </c>
       <c r="T8" t="n">
-        <v>13.39119785164117</v>
+        <v>13.39119785164119</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2447277734166288</v>
+        <v>0.2447277734166293</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.63676128175992</v>
+        <v>1.636761281759923</v>
       </c>
       <c r="H9" t="n">
-        <v>15.80766816857607</v>
+        <v>15.8076681685761</v>
       </c>
       <c r="I9" t="n">
-        <v>56.35340377989198</v>
+        <v>56.35340377989208</v>
       </c>
       <c r="J9" t="n">
-        <v>154.6380472385545</v>
+        <v>154.6380472385548</v>
       </c>
       <c r="K9" t="n">
-        <v>264.3010531164691</v>
+        <v>264.3010531164696</v>
       </c>
       <c r="L9" t="n">
-        <v>355.3853826908984</v>
+        <v>355.385382690899</v>
       </c>
       <c r="M9" t="n">
-        <v>414.7179791546953</v>
+        <v>414.7179791546961</v>
       </c>
       <c r="N9" t="n">
-        <v>425.6943300310591</v>
+        <v>425.6943300310598</v>
       </c>
       <c r="O9" t="n">
-        <v>389.427145840484</v>
+        <v>389.4271458404847</v>
       </c>
       <c r="P9" t="n">
-        <v>312.5496170406289</v>
+        <v>312.5496170406294</v>
       </c>
       <c r="Q9" t="n">
-        <v>208.9311418611434</v>
+        <v>208.9311418611438</v>
       </c>
       <c r="R9" t="n">
-        <v>101.6227750201466</v>
+        <v>101.6227750201468</v>
       </c>
       <c r="S9" t="n">
-        <v>30.40212293093533</v>
+        <v>30.40212293093538</v>
       </c>
       <c r="T9" t="n">
-        <v>6.597296569900726</v>
+        <v>6.597296569900738</v>
       </c>
       <c r="U9" t="n">
-        <v>0.107681663273679</v>
+        <v>0.1076816632736792</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.372205676252564</v>
+        <v>1.372205676252567</v>
       </c>
       <c r="H10" t="n">
-        <v>12.20015592159099</v>
+        <v>12.20015592159101</v>
       </c>
       <c r="I10" t="n">
-        <v>41.26596706403166</v>
+        <v>41.26596706403174</v>
       </c>
       <c r="J10" t="n">
-        <v>97.01494131105626</v>
+        <v>97.01494131105645</v>
       </c>
       <c r="K10" t="n">
-        <v>159.4253503864342</v>
+        <v>159.4253503864345</v>
       </c>
       <c r="L10" t="n">
-        <v>204.0095602675858</v>
+        <v>204.0095602675862</v>
       </c>
       <c r="M10" t="n">
-        <v>215.0994770511178</v>
+        <v>215.0994770511182</v>
       </c>
       <c r="N10" t="n">
-        <v>209.984892257813</v>
+        <v>209.9848922578133</v>
       </c>
       <c r="O10" t="n">
-        <v>193.9550350397716</v>
+        <v>193.9550350397719</v>
       </c>
       <c r="P10" t="n">
-        <v>165.9620392442191</v>
+        <v>165.9620392442194</v>
       </c>
       <c r="Q10" t="n">
-        <v>114.903513490567</v>
+        <v>114.9035134905672</v>
       </c>
       <c r="R10" t="n">
-        <v>61.699357043138</v>
+        <v>61.69935704313811</v>
       </c>
       <c r="S10" t="n">
-        <v>23.91380255796513</v>
+        <v>23.91380255796517</v>
       </c>
       <c r="T10" t="n">
-        <v>5.863060616715499</v>
+        <v>5.86306061671551</v>
       </c>
       <c r="U10" t="n">
-        <v>0.07484758234104903</v>
+        <v>0.07484758234104917</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485648</v>
+        <v>4.873046301485652</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508991</v>
+        <v>49.90608543508994</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380256</v>
+        <v>187.8681175380258</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307179</v>
+        <v>413.5937135307182</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726055</v>
+        <v>619.869763472606</v>
       </c>
       <c r="L11" t="n">
-        <v>769.003254221697</v>
+        <v>769.0032542216977</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857424</v>
+        <v>855.6642913857431</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898387</v>
+        <v>869.5098341898392</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294406</v>
+        <v>821.0534800294413</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615136</v>
+        <v>700.7501494615141</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895587</v>
+        <v>526.234178789559</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356981</v>
+        <v>306.1064947356983</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951043</v>
+        <v>111.0445425951044</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475343</v>
+        <v>21.33176018475345</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188518</v>
+        <v>0.3898437041188521</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969422</v>
+        <v>2.607309631969424</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191521</v>
+        <v>25.18112197191523</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596476</v>
+        <v>89.76921320596483</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783041</v>
+        <v>246.3335823783043</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202553</v>
+        <v>421.0233277202557</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256415</v>
+        <v>566.1178216256419</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845328</v>
+        <v>219.8517740430728</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147139</v>
+        <v>678.1177801147144</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431808</v>
+        <v>620.3452877431813</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>497.8817840205473</v>
       </c>
       <c r="Q12" t="n">
-        <v>272.1495468613099</v>
+        <v>332.8207874071848</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533297</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697586</v>
+        <v>48.42963285697589</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780657</v>
+        <v>10.50928750780658</v>
       </c>
       <c r="U12" t="n">
-        <v>0.171533528419041</v>
+        <v>0.1715335284190411</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236084</v>
+        <v>2.185880810236086</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737174</v>
+        <v>19.43446756737176</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691789</v>
+        <v>65.73539745691795</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836911</v>
+        <v>154.5417732836913</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619741</v>
+        <v>253.9596068619743</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509175</v>
+        <v>324.9808615509178</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263709</v>
+        <v>342.6467528263711</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973094</v>
+        <v>334.4993788973096</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050059</v>
+        <v>308.9643167050061</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761896</v>
+        <v>264.3723481761897</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916779</v>
+        <v>183.0377103916781</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570609</v>
+        <v>98.28514988570616</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929611</v>
+        <v>38.09394102929614</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826903</v>
+        <v>9.33967255282691</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765138</v>
+        <v>0.1192298623765139</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
         <v>275.9770021735818</v>
@@ -32081,25 +32081,25 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>490.1800829631214</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>391.6330708361143</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
         <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S15" t="n">
         <v>54.25758340862161</v>
@@ -32315,7 +32315,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,13 +32324,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>616.375287159485</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32552,10 +32552,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,16 +32798,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>137.7376326175082</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>163.572382128305</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>548.8125296967492</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>530.5785304507792</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>754.0002396832324</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>519.7862086120936</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>638.9422653403558</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L2" t="n">
-        <v>531.9621452441381</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M2" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N2" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O2" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P2" t="n">
-        <v>111.8528537874005</v>
+        <v>210.1744648322566</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34784,13 +34784,13 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M3" t="n">
-        <v>349.2738770933425</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N3" t="n">
-        <v>200.663375406732</v>
+        <v>296.7840672645773</v>
       </c>
       <c r="O3" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P3" t="n">
         <v>428.2502711927643</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>23.61499856173979</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
         <v>407.5425384040863</v>
@@ -34945,16 +34945,16 @@
         <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>210.7858894014898</v>
       </c>
       <c r="Q5" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>332.7559639452625</v>
@@ -35021,16 +35021,16 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>229.4160469348621</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
-        <v>200.663375406732</v>
+        <v>221.3845166277849</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q6" t="n">
         <v>233.0438950105733</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>247.6877588831328</v>
+        <v>78.59114371105949</v>
       </c>
       <c r="K8" t="n">
-        <v>312.083546569216</v>
+        <v>460.6466674480494</v>
       </c>
       <c r="L8" t="n">
-        <v>246.9820613230714</v>
+        <v>246.9820613230723</v>
       </c>
       <c r="M8" t="n">
-        <v>306.8044623220106</v>
+        <v>306.8044623220117</v>
       </c>
       <c r="N8" t="n">
-        <v>316.4292917804424</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O8" t="n">
-        <v>285.3252464939516</v>
+        <v>285.3252464939525</v>
       </c>
       <c r="P8" t="n">
-        <v>530.4677090040634</v>
+        <v>208.6690008325816</v>
       </c>
       <c r="Q8" t="n">
-        <v>320.3573800547677</v>
+        <v>320.3573800547683</v>
       </c>
       <c r="R8" t="n">
-        <v>42.29189451987941</v>
+        <v>42.29189451987975</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>153.8914559122967</v>
+        <v>27.80042057188811</v>
       </c>
       <c r="K9" t="n">
-        <v>390.9248511546887</v>
+        <v>390.9248511546892</v>
       </c>
       <c r="L9" t="n">
-        <v>427.551608944381</v>
+        <v>216.8310029110248</v>
       </c>
       <c r="M9" t="n">
-        <v>272.583945232677</v>
+        <v>272.5839452326778</v>
       </c>
       <c r="N9" t="n">
-        <v>294.3526179477258</v>
+        <v>294.3526179477266</v>
       </c>
       <c r="O9" t="n">
-        <v>246.8309013960396</v>
+        <v>582.177601902298</v>
       </c>
       <c r="P9" t="n">
-        <v>497.0379782662358</v>
+        <v>497.0379782662363</v>
       </c>
       <c r="Q9" t="n">
-        <v>279.026655510971</v>
+        <v>279.0266555109714</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.464940867503671</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3.655761194383487</v>
+        <v>3.655761194383672</v>
       </c>
       <c r="K10" t="n">
-        <v>137.1558585605514</v>
+        <v>137.1558585605516</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5995855279019</v>
+        <v>231.5995855279023</v>
       </c>
       <c r="M10" t="n">
-        <v>254.6833540129584</v>
+        <v>254.6833540129588</v>
       </c>
       <c r="N10" t="n">
-        <v>254.1170646370416</v>
+        <v>254.1170646370419</v>
       </c>
       <c r="O10" t="n">
-        <v>218.5401629538112</v>
+        <v>218.5401629538116</v>
       </c>
       <c r="P10" t="n">
-        <v>163.2405985091126</v>
+        <v>163.2405985091129</v>
       </c>
       <c r="Q10" t="n">
-        <v>28.74147023887259</v>
+        <v>28.74147023887281</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040316</v>
+        <v>232.5478090040319</v>
       </c>
       <c r="K11" t="n">
-        <v>399.779912427625</v>
+        <v>399.7799124276254</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517099</v>
+        <v>533.2368392517105</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584697</v>
+        <v>625.3180581584704</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932478</v>
+        <v>640.0967705932483</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077539</v>
+        <v>590.9552686077545</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062441</v>
+        <v>469.5171537062445</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151091</v>
+        <v>303.9284889151095</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156598</v>
+        <v>90.52095692156621</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116374</v>
+        <v>119.4959557116376</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458963</v>
+        <v>283.1818887458967</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457673</v>
+        <v>427.5634418457677</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625146</v>
+        <v>77.71774012105446</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313806</v>
+        <v>546.7760680313811</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987364</v>
+        <v>477.7490432987369</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>363.9073766062171</v>
       </c>
       <c r="Q12" t="n">
-        <v>132.1677727752884</v>
+        <v>192.8390133211632</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936578</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701835</v>
+        <v>61.1825931670185</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360912</v>
+        <v>231.6901150360914</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112337</v>
+        <v>352.5708868112339</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882114</v>
+        <v>382.2306297882117</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765379</v>
+        <v>378.6315512765382</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190456</v>
+        <v>333.5494446190458</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410831</v>
+        <v>261.6509074410832</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998355</v>
+        <v>96.87566713998369</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
         <v>149.1393755069151</v>
@@ -35729,25 +35729,25 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>351.6257031832473</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>260.291358752781</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
         <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,13 +35972,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>473.7790427150405</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,10 +36200,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,16 +36446,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>25.73094315394599</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>414.838122282419</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096369</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>622.6585275998991</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>388.4444965287602</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>496.3460208959114</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
